--- a/staking_rise_dashboard_jogadores.xlsx
+++ b/staking_rise_dashboard_jogadores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="50">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t xml:space="preserve">Pablo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blurry</t>
   </si>
   <si>
     <t xml:space="preserve">Semana 2</t>
@@ -465,8 +471,8 @@
   </sheetPr>
   <dimension ref="A1:R841"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K74" activeCellId="0" sqref="K74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J148" activeCellId="0" sqref="J148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5637,10 +5643,42 @@
       <c r="E143" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="1"/>
-      <c r="P143" s="1"/>
+      <c r="F143" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H143" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L143" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M143" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="3" t="s">
@@ -5655,10 +5693,42 @@
       <c r="E144" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="1"/>
-      <c r="P144" s="1"/>
+      <c r="F144" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H144" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L144" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="3" t="s">
@@ -5673,10 +5743,42 @@
       <c r="E145" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="1"/>
-      <c r="P145" s="1"/>
+      <c r="F145" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H145" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K145" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="L145" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M145" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N145" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O145" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="3" t="s">
@@ -5691,10 +5793,42 @@
       <c r="E146" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="1"/>
-      <c r="P146" s="1"/>
+      <c r="F146" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H146" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L146" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M146" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N146" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="3" t="s">
@@ -5727,10 +5861,42 @@
       <c r="E148" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="1"/>
-      <c r="P148" s="1"/>
+      <c r="F148" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="L148" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="M148" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N148" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="3" t="s">
@@ -5745,10 +5911,42 @@
       <c r="E149" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="1"/>
-      <c r="P149" s="1"/>
+      <c r="F149" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="L149" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="M149" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O149" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="3" t="s">
@@ -5763,10 +5961,42 @@
       <c r="E150" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="1"/>
-      <c r="P150" s="1"/>
+      <c r="F150" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="L150" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M150" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N150" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="3" t="s">
@@ -5781,10 +6011,42 @@
       <c r="E151" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="1"/>
-      <c r="P151" s="1"/>
+      <c r="F151" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="L151" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="M151" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="3" t="s">
@@ -5801,7 +6063,6 @@
       </c>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
-      <c r="H152" s="1"/>
       <c r="P152" s="1"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5817,10 +6078,42 @@
       <c r="E153" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="1"/>
-      <c r="P153" s="1"/>
+      <c r="F153" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L153" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M153" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N153" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="3" t="s">
@@ -5835,10 +6128,42 @@
       <c r="E154" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="1"/>
-      <c r="P154" s="1"/>
+      <c r="F154" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="L154" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="M154" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O154" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P154" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="3" t="s">
@@ -5853,10 +6178,42 @@
       <c r="E155" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="1"/>
-      <c r="P155" s="1"/>
+      <c r="F155" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="L155" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="M155" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N155" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O155" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="3" t="s">
@@ -5871,10 +6228,42 @@
       <c r="E156" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="1"/>
-      <c r="P156" s="1"/>
+      <c r="F156" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L156" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M156" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N156" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="3" t="s">
@@ -5907,10 +6296,42 @@
       <c r="E158" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="1"/>
-      <c r="P158" s="1"/>
+      <c r="F158" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="L158" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="M158" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N158" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q158" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="3" t="s">
@@ -5925,10 +6346,42 @@
       <c r="E159" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="1"/>
-      <c r="P159" s="1"/>
+      <c r="F159" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="L159" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M159" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O159" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="3" t="s">
@@ -5943,10 +6396,42 @@
       <c r="E160" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="1"/>
-      <c r="P160" s="1"/>
+      <c r="F160" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="L160" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M160" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N160" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O160" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="3" t="s">
@@ -5961,10 +6446,42 @@
       <c r="E161" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="1"/>
-      <c r="P161" s="1"/>
+      <c r="F161" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="L161" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M161" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N161" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="3" t="s">
@@ -5981,7 +6498,6 @@
       </c>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="1"/>
       <c r="P162" s="1"/>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5997,10 +6513,42 @@
       <c r="E163" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="1"/>
-      <c r="P163" s="1"/>
+      <c r="F163" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="L163" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="M163" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="N163" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O163" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="3" t="s">
@@ -6015,10 +6563,42 @@
       <c r="E164" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="1"/>
-      <c r="P164" s="1"/>
+      <c r="F164" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="L164" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="M164" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N164" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="3" t="s">
@@ -6033,10 +6613,42 @@
       <c r="E165" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="1"/>
-      <c r="P165" s="1"/>
+      <c r="F165" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="L165" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M165" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="N165" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="3" t="s">
@@ -6051,10 +6663,42 @@
       <c r="E166" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="1"/>
-      <c r="P166" s="1"/>
+      <c r="F166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="L166" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="M166" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N166" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="3" t="s">
@@ -6087,10 +6731,42 @@
       <c r="E168" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="1"/>
-      <c r="P168" s="1"/>
+      <c r="F168" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="L168" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="M168" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N168" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="3" t="s">
@@ -6105,10 +6781,42 @@
       <c r="E169" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="1"/>
-      <c r="P169" s="1"/>
+      <c r="F169" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="L169" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="M169" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N169" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="3" t="s">
@@ -6123,10 +6831,42 @@
       <c r="E170" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="1"/>
-      <c r="P170" s="1"/>
+      <c r="F170" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="L170" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="M170" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N170" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="3" t="s">
@@ -6141,10 +6881,42 @@
       <c r="E171" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="1"/>
-      <c r="P171" s="1"/>
+      <c r="F171" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="L171" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="M171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="N171" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="3" t="s">
@@ -6161,8 +6933,10 @@
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
-      <c r="H172" s="1"/>
-      <c r="P172" s="1"/>
+      <c r="M172" s="0"/>
+      <c r="N172" s="0"/>
+      <c r="O172" s="0"/>
+      <c r="Q172" s="0"/>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="3" t="s">
@@ -6177,10 +6951,42 @@
       <c r="E173" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="1"/>
-      <c r="P173" s="1"/>
+      <c r="F173" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="L173" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="M173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="3" t="s">
@@ -6195,10 +7001,42 @@
       <c r="E174" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="1"/>
-      <c r="P174" s="1"/>
+      <c r="F174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="L174" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="M174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N174" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="3" t="s">
@@ -6213,10 +7051,42 @@
       <c r="E175" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="1"/>
-      <c r="P175" s="1"/>
+      <c r="F175" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="L175" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="3" t="s">
@@ -6231,10 +7101,42 @@
       <c r="E176" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="1"/>
-      <c r="P176" s="1"/>
+      <c r="F176" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="L176" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="M176" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N176" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="3" t="s">
@@ -6267,10 +7169,42 @@
       <c r="E178" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="1"/>
-      <c r="P178" s="1"/>
+      <c r="F178" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="L178" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="M178" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N178" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="3" t="s">
@@ -6285,10 +7219,42 @@
       <c r="E179" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="1"/>
-      <c r="P179" s="1"/>
+      <c r="F179" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="L179" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="M179" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N179" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="3" t="s">
@@ -6303,10 +7269,42 @@
       <c r="E180" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="1"/>
-      <c r="P180" s="1"/>
+      <c r="F180" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="L180" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="M180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="3" t="s">
@@ -6321,10 +7319,42 @@
       <c r="E181" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="1"/>
-      <c r="P181" s="1"/>
+      <c r="F181" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="L181" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N181" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q181" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="3" t="s">
@@ -6341,7 +7371,6 @@
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
-      <c r="H182" s="1"/>
       <c r="P182" s="1"/>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6357,10 +7386,42 @@
       <c r="E183" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="1"/>
-      <c r="P183" s="1"/>
+      <c r="F183" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="L183" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="M183" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="N183" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="O183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="3" t="s">
@@ -6375,10 +7436,42 @@
       <c r="E184" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="1"/>
-      <c r="P184" s="1"/>
+      <c r="F184" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="L184" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M184" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N184" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O184" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q184" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="3" t="s">
@@ -6393,10 +7486,42 @@
       <c r="E185" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="1"/>
-      <c r="P185" s="1"/>
+      <c r="F185" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="L185" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M185" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N185" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="3" t="s">
@@ -6411,10 +7536,42 @@
       <c r="E186" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="1"/>
-      <c r="P186" s="1"/>
+      <c r="F186" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="L186" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="M186" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="N186" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O186" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="3" t="s">
@@ -6445,8 +7602,42 @@
       <c r="E188" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
+      <c r="F188" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="L188" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="M188" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="O188" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P188" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q188" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="3" t="s">
@@ -6461,8 +7652,42 @@
       <c r="E189" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
+      <c r="F189" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="L189" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="M189" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N189" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="3" t="s">
@@ -6477,8 +7702,42 @@
       <c r="E190" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
+      <c r="F190" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="L190" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="M190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P190" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q190" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="3" t="s">
@@ -6493,8 +7752,42 @@
       <c r="E191" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
+      <c r="F191" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="L191" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="M191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N191" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="3" t="s">
@@ -6525,8 +7818,42 @@
       <c r="E193" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
+      <c r="F193" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="L193" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M193" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N193" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O193" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P193" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q193" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="3" t="s">
@@ -6541,8 +7868,42 @@
       <c r="E194" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
+      <c r="F194" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="L194" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="M194" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="3" t="s">
@@ -6557,8 +7918,42 @@
       <c r="E195" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
+      <c r="F195" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="L195" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="M195" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N195" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="3" t="s">
@@ -6573,8 +7968,42 @@
       <c r="E196" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
+      <c r="F196" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L196" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M196" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O196" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P196" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q196" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="3" t="s">
@@ -6841,7 +8270,7 @@
         <v>17</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D212" s="3" t="n">
         <v>1</v>
@@ -6859,7 +8288,7 @@
         <v>17</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D213" s="3" t="n">
         <v>1</v>
@@ -6877,7 +8306,7 @@
         <v>17</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D214" s="3" t="n">
         <v>1</v>
@@ -6895,7 +8324,7 @@
         <v>17</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D215" s="3" t="n">
         <v>1</v>
@@ -6913,7 +8342,7 @@
         <v>17</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D216" s="3" t="n">
         <v>1</v>
@@ -6930,7 +8359,7 @@
         <v>17</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D217" s="3" t="n">
         <v>1</v>
@@ -6948,7 +8377,7 @@
         <v>17</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D218" s="3" t="n">
         <v>1</v>
@@ -6966,7 +8395,7 @@
         <v>17</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D219" s="3" t="n">
         <v>1</v>
@@ -6984,7 +8413,7 @@
         <v>17</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D220" s="3" t="n">
         <v>1</v>
@@ -7002,7 +8431,7 @@
         <v>17</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D221" s="3" t="n">
         <v>1</v>
@@ -7020,7 +8449,7 @@
         <v>17</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D222" s="3" t="n">
         <v>1</v>
@@ -7038,7 +8467,7 @@
         <v>17</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D223" s="3" t="n">
         <v>1</v>
@@ -7056,7 +8485,7 @@
         <v>17</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D224" s="3" t="n">
         <v>1</v>
@@ -7074,7 +8503,7 @@
         <v>17</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D225" s="3" t="n">
         <v>1</v>
@@ -7092,7 +8521,7 @@
         <v>17</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D226" s="3" t="n">
         <v>1</v>
@@ -7110,7 +8539,7 @@
         <v>17</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D227" s="3" t="n">
         <v>1</v>
@@ -7126,7 +8555,7 @@
         <v>17</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D228" s="3" t="n">
         <v>1</v>
@@ -7142,7 +8571,7 @@
         <v>17</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D229" s="3" t="n">
         <v>1</v>
@@ -7158,7 +8587,7 @@
         <v>17</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D230" s="3" t="n">
         <v>1</v>
@@ -7174,7 +8603,7 @@
         <v>17</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D231" s="3" t="n">
         <v>1</v>
@@ -7190,7 +8619,7 @@
         <v>17</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D232" s="3" t="n">
         <v>1</v>
@@ -7208,7 +8637,7 @@
         <v>17</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D233" s="3" t="n">
         <v>1</v>
@@ -7226,7 +8655,7 @@
         <v>17</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D234" s="3" t="n">
         <v>1</v>
@@ -7244,7 +8673,7 @@
         <v>17</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D235" s="3" t="n">
         <v>1</v>
@@ -7262,7 +8691,7 @@
         <v>17</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D236" s="3" t="n">
         <v>1</v>
@@ -7280,7 +8709,7 @@
         <v>17</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D237" s="3" t="n">
         <v>1</v>
@@ -7298,7 +8727,7 @@
         <v>17</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D238" s="3" t="n">
         <v>1</v>
@@ -7316,7 +8745,7 @@
         <v>17</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D239" s="3" t="n">
         <v>1</v>
@@ -7334,7 +8763,7 @@
         <v>17</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D240" s="3" t="n">
         <v>1</v>
@@ -7352,7 +8781,7 @@
         <v>17</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D241" s="3" t="n">
         <v>1</v>
@@ -7369,7 +8798,7 @@
         <v>17</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D242" s="3" t="n">
         <v>1</v>
@@ -7387,7 +8816,7 @@
         <v>17</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D243" s="3" t="n">
         <v>1</v>
@@ -7405,7 +8834,7 @@
         <v>17</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D244" s="3" t="n">
         <v>1</v>
@@ -7423,7 +8852,7 @@
         <v>17</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D245" s="3" t="n">
         <v>1</v>
@@ -7441,7 +8870,7 @@
         <v>17</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D246" s="3" t="n">
         <v>1</v>
@@ -7458,7 +8887,7 @@
         <v>17</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D247" s="3" t="n">
         <v>1</v>
@@ -7476,7 +8905,7 @@
         <v>17</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D248" s="3" t="n">
         <v>1</v>
@@ -7494,7 +8923,7 @@
         <v>17</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D249" s="3" t="n">
         <v>1</v>
@@ -7512,7 +8941,7 @@
         <v>17</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D250" s="3" t="n">
         <v>1</v>
@@ -7530,7 +8959,7 @@
         <v>17</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D251" s="3" t="n">
         <v>1</v>
@@ -7547,7 +8976,7 @@
         <v>17</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D252" s="3" t="n">
         <v>1</v>
@@ -7565,7 +8994,7 @@
         <v>17</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D253" s="3" t="n">
         <v>1</v>
@@ -7583,7 +9012,7 @@
         <v>17</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D254" s="3" t="n">
         <v>1</v>
@@ -7601,7 +9030,7 @@
         <v>17</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D255" s="3" t="n">
         <v>1</v>
@@ -7619,7 +9048,7 @@
         <v>17</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D256" s="3" t="n">
         <v>1</v>
@@ -7636,7 +9065,7 @@
         <v>17</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D257" s="3" t="n">
         <v>1</v>
@@ -7652,7 +9081,7 @@
         <v>17</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D258" s="3" t="n">
         <v>1</v>
@@ -7668,7 +9097,7 @@
         <v>17</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D259" s="3" t="n">
         <v>1</v>
@@ -7684,7 +9113,7 @@
         <v>17</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D260" s="3" t="n">
         <v>1</v>
@@ -7700,7 +9129,7 @@
         <v>17</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D261" s="3" t="n">
         <v>1</v>
@@ -7716,7 +9145,7 @@
         <v>17</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D262" s="3" t="n">
         <v>1</v>
@@ -7734,7 +9163,7 @@
         <v>17</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D263" s="3" t="n">
         <v>1</v>
@@ -7752,7 +9181,7 @@
         <v>17</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D264" s="3" t="n">
         <v>1</v>
@@ -7770,7 +9199,7 @@
         <v>17</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D265" s="3" t="n">
         <v>1</v>
@@ -7788,7 +9217,7 @@
         <v>17</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D266" s="3" t="n">
         <v>1</v>
@@ -7805,7 +9234,7 @@
         <v>17</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D267" s="3" t="n">
         <v>1</v>
@@ -7823,7 +9252,7 @@
         <v>17</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D268" s="3" t="n">
         <v>1</v>
@@ -7841,7 +9270,7 @@
         <v>17</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D269" s="3" t="n">
         <v>1</v>
@@ -7859,7 +9288,7 @@
         <v>17</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D270" s="3" t="n">
         <v>1</v>
@@ -7877,7 +9306,7 @@
         <v>17</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D271" s="3" t="n">
         <v>1</v>
@@ -7894,7 +9323,7 @@
         <v>17</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D272" s="3" t="n">
         <v>1</v>
@@ -7912,7 +9341,7 @@
         <v>17</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D273" s="3" t="n">
         <v>1</v>
@@ -7930,7 +9359,7 @@
         <v>17</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D274" s="3" t="n">
         <v>1</v>
@@ -7948,7 +9377,7 @@
         <v>17</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D275" s="3" t="n">
         <v>1</v>
@@ -7966,7 +9395,7 @@
         <v>17</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D276" s="3" t="n">
         <v>1</v>
@@ -7983,7 +9412,7 @@
         <v>17</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D277" s="3" t="n">
         <v>1</v>
@@ -7999,7 +9428,7 @@
         <v>17</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D278" s="3" t="n">
         <v>1</v>
@@ -8015,7 +9444,7 @@
         <v>17</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D279" s="3" t="n">
         <v>1</v>
@@ -8031,7 +9460,7 @@
         <v>17</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D280" s="3" t="n">
         <v>1</v>
@@ -8047,7 +9476,7 @@
         <v>17</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D281" s="3" t="n">
         <v>1</v>
@@ -8063,7 +9492,7 @@
         <v>17</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D282" s="3" t="n">
         <v>2</v>
@@ -8081,7 +9510,7 @@
         <v>17</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D283" s="3" t="n">
         <v>2</v>
@@ -8099,7 +9528,7 @@
         <v>17</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D284" s="3" t="n">
         <v>2</v>
@@ -8117,7 +9546,7 @@
         <v>17</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D285" s="3" t="n">
         <v>2</v>
@@ -8135,7 +9564,7 @@
         <v>17</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D286" s="3" t="n">
         <v>2</v>
@@ -8153,7 +9582,7 @@
         <v>17</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D287" s="3" t="n">
         <v>2</v>
@@ -8171,7 +9600,7 @@
         <v>17</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D288" s="3" t="n">
         <v>2</v>
@@ -8189,7 +9618,7 @@
         <v>17</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D289" s="3" t="n">
         <v>2</v>
@@ -8207,7 +9636,7 @@
         <v>17</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D290" s="3" t="n">
         <v>2</v>
@@ -8225,7 +9654,7 @@
         <v>17</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D291" s="3" t="n">
         <v>2</v>
@@ -8243,7 +9672,7 @@
         <v>17</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D292" s="3" t="n">
         <v>2</v>
@@ -8261,7 +9690,7 @@
         <v>17</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D293" s="3" t="n">
         <v>2</v>
@@ -8279,7 +9708,7 @@
         <v>17</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D294" s="3" t="n">
         <v>2</v>
@@ -8297,7 +9726,7 @@
         <v>17</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D295" s="3" t="n">
         <v>2</v>
@@ -8315,7 +9744,7 @@
         <v>17</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D296" s="3" t="n">
         <v>2</v>
@@ -8333,7 +9762,7 @@
         <v>17</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D297" s="3" t="n">
         <v>2</v>
@@ -8349,7 +9778,7 @@
         <v>17</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D298" s="3" t="n">
         <v>2</v>
@@ -8365,7 +9794,7 @@
         <v>17</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D299" s="3" t="n">
         <v>2</v>
@@ -8381,7 +9810,7 @@
         <v>17</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D300" s="3" t="n">
         <v>2</v>
@@ -8397,7 +9826,7 @@
         <v>17</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D301" s="3" t="n">
         <v>2</v>
@@ -8413,7 +9842,7 @@
         <v>17</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D302" s="3" t="n">
         <v>2</v>
@@ -8431,7 +9860,7 @@
         <v>17</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D303" s="3" t="n">
         <v>2</v>
@@ -8449,7 +9878,7 @@
         <v>17</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D304" s="3" t="n">
         <v>2</v>
@@ -8467,7 +9896,7 @@
         <v>17</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D305" s="3" t="n">
         <v>2</v>
@@ -8485,7 +9914,7 @@
         <v>17</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D306" s="3" t="n">
         <v>2</v>
@@ -8503,7 +9932,7 @@
         <v>17</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D307" s="3" t="n">
         <v>2</v>
@@ -8521,7 +9950,7 @@
         <v>17</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D308" s="3" t="n">
         <v>2</v>
@@ -8539,7 +9968,7 @@
         <v>17</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D309" s="3" t="n">
         <v>2</v>
@@ -8557,7 +9986,7 @@
         <v>17</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D310" s="3" t="n">
         <v>2</v>
@@ -8575,7 +10004,7 @@
         <v>17</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D311" s="3" t="n">
         <v>2</v>
@@ -8593,7 +10022,7 @@
         <v>17</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D312" s="3" t="n">
         <v>2</v>
@@ -8611,7 +10040,7 @@
         <v>17</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D313" s="3" t="n">
         <v>2</v>
@@ -8629,7 +10058,7 @@
         <v>17</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D314" s="3" t="n">
         <v>2</v>
@@ -8647,7 +10076,7 @@
         <v>17</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D315" s="3" t="n">
         <v>2</v>
@@ -8665,7 +10094,7 @@
         <v>17</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D316" s="3" t="n">
         <v>2</v>
@@ -8683,7 +10112,7 @@
         <v>17</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D317" s="3" t="n">
         <v>2</v>
@@ -8701,7 +10130,7 @@
         <v>17</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D318" s="3" t="n">
         <v>2</v>
@@ -8719,7 +10148,7 @@
         <v>17</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D319" s="3" t="n">
         <v>2</v>
@@ -8737,7 +10166,7 @@
         <v>17</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D320" s="3" t="n">
         <v>2</v>
@@ -8755,7 +10184,7 @@
         <v>17</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D321" s="3" t="n">
         <v>2</v>
@@ -8773,7 +10202,7 @@
         <v>17</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D322" s="3" t="n">
         <v>2</v>
@@ -8791,7 +10220,7 @@
         <v>17</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D323" s="3" t="n">
         <v>2</v>
@@ -8809,7 +10238,7 @@
         <v>17</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D324" s="3" t="n">
         <v>2</v>
@@ -8827,7 +10256,7 @@
         <v>17</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D325" s="3" t="n">
         <v>2</v>
@@ -8845,7 +10274,7 @@
         <v>17</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D326" s="3" t="n">
         <v>2</v>
@@ -8863,7 +10292,7 @@
         <v>17</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D327" s="3" t="n">
         <v>2</v>
@@ -8879,7 +10308,7 @@
         <v>17</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D328" s="3" t="n">
         <v>2</v>
@@ -8895,7 +10324,7 @@
         <v>17</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D329" s="3" t="n">
         <v>2</v>
@@ -8911,7 +10340,7 @@
         <v>17</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D330" s="3" t="n">
         <v>2</v>
@@ -8927,7 +10356,7 @@
         <v>17</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D331" s="3" t="n">
         <v>2</v>
@@ -8943,7 +10372,7 @@
         <v>17</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D332" s="3" t="n">
         <v>2</v>
@@ -8961,7 +10390,7 @@
         <v>17</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D333" s="3" t="n">
         <v>2</v>
@@ -8979,7 +10408,7 @@
         <v>17</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D334" s="3" t="n">
         <v>2</v>
@@ -8997,7 +10426,7 @@
         <v>17</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D335" s="3" t="n">
         <v>2</v>
@@ -9015,7 +10444,7 @@
         <v>17</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D336" s="3" t="n">
         <v>2</v>
@@ -9033,7 +10462,7 @@
         <v>17</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D337" s="3" t="n">
         <v>2</v>
@@ -9051,7 +10480,7 @@
         <v>17</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D338" s="3" t="n">
         <v>2</v>
@@ -9069,7 +10498,7 @@
         <v>17</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D339" s="3" t="n">
         <v>2</v>
@@ -9087,7 +10516,7 @@
         <v>17</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D340" s="3" t="n">
         <v>2</v>
@@ -9105,7 +10534,7 @@
         <v>17</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D341" s="3" t="n">
         <v>2</v>
@@ -9123,7 +10552,7 @@
         <v>17</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D342" s="3" t="n">
         <v>2</v>
@@ -9141,7 +10570,7 @@
         <v>17</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D343" s="3" t="n">
         <v>2</v>
@@ -9159,7 +10588,7 @@
         <v>17</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D344" s="3" t="n">
         <v>2</v>
@@ -9177,7 +10606,7 @@
         <v>17</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D345" s="3" t="n">
         <v>2</v>
@@ -9195,7 +10624,7 @@
         <v>17</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D346" s="3" t="n">
         <v>2</v>
@@ -9213,7 +10642,7 @@
         <v>17</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D347" s="3" t="n">
         <v>2</v>
@@ -9229,7 +10658,7 @@
         <v>17</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D348" s="3" t="n">
         <v>2</v>
@@ -9245,7 +10674,7 @@
         <v>17</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D349" s="3" t="n">
         <v>2</v>
@@ -9261,7 +10690,7 @@
         <v>17</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D350" s="3" t="n">
         <v>2</v>
@@ -9277,7 +10706,7 @@
         <v>17</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D351" s="3" t="n">
         <v>2</v>
@@ -9293,7 +10722,7 @@
         <v>17</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D352" s="3" t="n">
         <v>3</v>
@@ -9311,7 +10740,7 @@
         <v>17</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D353" s="3" t="n">
         <v>3</v>
@@ -9329,7 +10758,7 @@
         <v>17</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D354" s="3" t="n">
         <v>3</v>
@@ -9347,7 +10776,7 @@
         <v>17</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D355" s="3" t="n">
         <v>3</v>
@@ -9365,7 +10794,7 @@
         <v>17</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D356" s="3" t="n">
         <v>3</v>
@@ -9383,7 +10812,7 @@
         <v>17</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D357" s="3" t="n">
         <v>3</v>
@@ -9401,7 +10830,7 @@
         <v>17</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D358" s="3" t="n">
         <v>3</v>
@@ -9419,7 +10848,7 @@
         <v>17</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D359" s="3" t="n">
         <v>3</v>
@@ -9437,7 +10866,7 @@
         <v>17</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D360" s="3" t="n">
         <v>3</v>
@@ -9455,7 +10884,7 @@
         <v>17</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D361" s="3" t="n">
         <v>3</v>
@@ -9473,7 +10902,7 @@
         <v>17</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D362" s="3" t="n">
         <v>3</v>
@@ -9491,7 +10920,7 @@
         <v>17</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D363" s="3" t="n">
         <v>3</v>
@@ -9509,7 +10938,7 @@
         <v>17</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D364" s="3" t="n">
         <v>3</v>
@@ -9527,7 +10956,7 @@
         <v>17</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D365" s="3" t="n">
         <v>3</v>
@@ -9545,7 +10974,7 @@
         <v>17</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D366" s="3" t="n">
         <v>3</v>
@@ -9563,7 +10992,7 @@
         <v>17</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D367" s="3" t="n">
         <v>3</v>
@@ -9581,7 +11010,7 @@
         <v>17</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D368" s="3" t="n">
         <v>3</v>
@@ -9599,7 +11028,7 @@
         <v>17</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D369" s="3" t="n">
         <v>3</v>
@@ -9617,7 +11046,7 @@
         <v>17</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D370" s="3" t="n">
         <v>3</v>
@@ -9636,7 +11065,7 @@
         <v>17</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D371" s="3" t="n">
         <v>3</v>
@@ -9654,7 +11083,7 @@
         <v>17</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D372" s="3" t="n">
         <v>3</v>
@@ -9670,7 +11099,7 @@
         <v>17</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D373" s="3" t="n">
         <v>3</v>
@@ -9686,7 +11115,7 @@
         <v>17</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D374" s="3" t="n">
         <v>3</v>
@@ -9702,7 +11131,7 @@
         <v>17</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D375" s="3" t="n">
         <v>3</v>
@@ -9718,7 +11147,7 @@
         <v>17</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D376" s="3" t="n">
         <v>3</v>
@@ -9734,7 +11163,7 @@
         <v>17</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D377" s="3" t="n">
         <v>3</v>
@@ -9752,7 +11181,7 @@
         <v>17</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D378" s="3" t="n">
         <v>3</v>
@@ -9770,7 +11199,7 @@
         <v>17</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D379" s="3" t="n">
         <v>3</v>
@@ -9788,7 +11217,7 @@
         <v>17</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D380" s="3" t="n">
         <v>3</v>
@@ -9806,7 +11235,7 @@
         <v>17</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D381" s="3" t="n">
         <v>3</v>
@@ -9824,7 +11253,7 @@
         <v>17</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D382" s="3" t="n">
         <v>3</v>
@@ -9840,7 +11269,7 @@
         <v>17</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D383" s="3" t="n">
         <v>3</v>
@@ -9856,7 +11285,7 @@
         <v>17</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D384" s="3" t="n">
         <v>3</v>
@@ -9872,7 +11301,7 @@
         <v>17</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D385" s="3" t="n">
         <v>3</v>
@@ -9888,7 +11317,7 @@
         <v>17</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D386" s="3" t="n">
         <v>3</v>
@@ -9904,7 +11333,7 @@
         <v>17</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D387" s="3" t="n">
         <v>3</v>
@@ -9922,7 +11351,7 @@
         <v>17</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D388" s="3" t="n">
         <v>3</v>
@@ -9940,7 +11369,7 @@
         <v>17</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D389" s="3" t="n">
         <v>3</v>
@@ -9958,7 +11387,7 @@
         <v>17</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D390" s="3" t="n">
         <v>3</v>
@@ -9976,7 +11405,7 @@
         <v>17</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D391" s="3" t="n">
         <v>3</v>
@@ -9994,7 +11423,7 @@
         <v>17</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D392" s="3" t="n">
         <v>3</v>
@@ -10012,7 +11441,7 @@
         <v>17</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D393" s="3" t="n">
         <v>3</v>
@@ -10030,7 +11459,7 @@
         <v>17</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D394" s="3" t="n">
         <v>3</v>
@@ -10048,7 +11477,7 @@
         <v>17</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D395" s="3" t="n">
         <v>3</v>
@@ -10066,7 +11495,7 @@
         <v>17</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D396" s="3" t="n">
         <v>3</v>
@@ -10084,7 +11513,7 @@
         <v>17</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D397" s="3" t="n">
         <v>3</v>
@@ -10100,7 +11529,7 @@
         <v>17</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D398" s="3" t="n">
         <v>3</v>
@@ -10116,7 +11545,7 @@
         <v>17</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D399" s="3" t="n">
         <v>3</v>
@@ -10132,7 +11561,7 @@
         <v>17</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D400" s="3" t="n">
         <v>3</v>
@@ -10148,7 +11577,7 @@
         <v>17</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D401" s="3" t="n">
         <v>3</v>
@@ -10164,7 +11593,7 @@
         <v>17</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D402" s="3" t="n">
         <v>3</v>
@@ -10182,7 +11611,7 @@
         <v>17</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D403" s="3" t="n">
         <v>3</v>
@@ -10200,7 +11629,7 @@
         <v>17</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D404" s="3" t="n">
         <v>3</v>
@@ -10218,7 +11647,7 @@
         <v>17</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D405" s="3" t="n">
         <v>3</v>
@@ -10236,7 +11665,7 @@
         <v>17</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D406" s="3" t="n">
         <v>3</v>
@@ -10254,7 +11683,7 @@
         <v>17</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D407" s="3" t="n">
         <v>3</v>
@@ -10272,7 +11701,7 @@
         <v>17</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D408" s="3" t="n">
         <v>3</v>
@@ -10290,7 +11719,7 @@
         <v>17</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D409" s="3" t="n">
         <v>3</v>
@@ -10308,7 +11737,7 @@
         <v>17</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D410" s="3" t="n">
         <v>3</v>
@@ -10326,7 +11755,7 @@
         <v>17</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D411" s="3" t="n">
         <v>3</v>
@@ -10344,7 +11773,7 @@
         <v>17</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D412" s="3" t="n">
         <v>3</v>
@@ -10362,7 +11791,7 @@
         <v>17</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D413" s="3" t="n">
         <v>3</v>
@@ -10380,7 +11809,7 @@
         <v>17</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D414" s="3" t="n">
         <v>3</v>
@@ -10398,7 +11827,7 @@
         <v>17</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D415" s="3" t="n">
         <v>3</v>
@@ -10416,7 +11845,7 @@
         <v>17</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D416" s="3" t="n">
         <v>3</v>
@@ -10434,7 +11863,7 @@
         <v>17</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D417" s="3" t="n">
         <v>3</v>
@@ -10452,7 +11881,7 @@
         <v>17</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D418" s="3" t="n">
         <v>3</v>
@@ -10470,7 +11899,7 @@
         <v>17</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D419" s="3" t="n">
         <v>3</v>
@@ -10488,7 +11917,7 @@
         <v>17</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D420" s="3" t="n">
         <v>3</v>
@@ -10506,7 +11935,7 @@
         <v>17</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D421" s="3" t="n">
         <v>3</v>
@@ -10524,7 +11953,7 @@
         <v>17</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D422" s="3" t="n">
         <v>1</v>
@@ -10540,7 +11969,7 @@
         <v>17</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D423" s="3" t="n">
         <v>1</v>
@@ -10556,7 +11985,7 @@
         <v>17</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D424" s="3" t="n">
         <v>1</v>
@@ -10572,7 +12001,7 @@
         <v>17</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D425" s="3" t="n">
         <v>1</v>
@@ -10588,7 +12017,7 @@
         <v>17</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D426" s="3" t="n">
         <v>1</v>
@@ -10604,7 +12033,7 @@
         <v>17</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D427" s="3" t="n">
         <v>1</v>
@@ -10620,7 +12049,7 @@
         <v>17</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D428" s="3" t="n">
         <v>1</v>
@@ -10636,7 +12065,7 @@
         <v>17</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D429" s="3" t="n">
         <v>1</v>
@@ -10652,7 +12081,7 @@
         <v>17</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D430" s="3" t="n">
         <v>1</v>
@@ -10668,7 +12097,7 @@
         <v>17</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D431" s="3" t="n">
         <v>1</v>
@@ -10684,7 +12113,7 @@
         <v>17</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D432" s="3" t="n">
         <v>1</v>
@@ -10700,7 +12129,7 @@
         <v>17</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D433" s="3" t="n">
         <v>1</v>
@@ -10716,7 +12145,7 @@
         <v>17</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D434" s="3" t="n">
         <v>1</v>
@@ -10732,7 +12161,7 @@
         <v>17</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D435" s="3" t="n">
         <v>1</v>
@@ -10748,7 +12177,7 @@
         <v>17</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D436" s="3" t="n">
         <v>1</v>
@@ -10764,7 +12193,7 @@
         <v>17</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D437" s="3" t="n">
         <v>1</v>
@@ -10780,7 +12209,7 @@
         <v>17</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D438" s="3" t="n">
         <v>1</v>
@@ -10796,7 +12225,7 @@
         <v>17</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D439" s="3" t="n">
         <v>1</v>
@@ -10812,7 +12241,7 @@
         <v>17</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D440" s="3" t="n">
         <v>1</v>
@@ -10828,7 +12257,7 @@
         <v>17</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D441" s="3" t="n">
         <v>1</v>
@@ -10844,7 +12273,7 @@
         <v>17</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D442" s="3" t="n">
         <v>1</v>
@@ -10860,7 +12289,7 @@
         <v>17</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D443" s="3" t="n">
         <v>1</v>
@@ -10876,7 +12305,7 @@
         <v>17</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D444" s="3" t="n">
         <v>1</v>
@@ -10892,7 +12321,7 @@
         <v>17</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D445" s="3" t="n">
         <v>1</v>
@@ -10908,7 +12337,7 @@
         <v>17</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D446" s="3" t="n">
         <v>1</v>
@@ -10924,7 +12353,7 @@
         <v>17</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D447" s="3" t="n">
         <v>1</v>
@@ -10940,7 +12369,7 @@
         <v>17</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D448" s="3" t="n">
         <v>1</v>
@@ -10956,7 +12385,7 @@
         <v>17</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D449" s="3" t="n">
         <v>1</v>
@@ -10972,7 +12401,7 @@
         <v>17</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D450" s="3" t="n">
         <v>1</v>
@@ -10988,7 +12417,7 @@
         <v>17</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D451" s="3" t="n">
         <v>1</v>
@@ -11004,7 +12433,7 @@
         <v>17</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D452" s="3" t="n">
         <v>1</v>
@@ -11020,7 +12449,7 @@
         <v>17</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D453" s="3" t="n">
         <v>1</v>
@@ -11036,7 +12465,7 @@
         <v>17</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D454" s="3" t="n">
         <v>1</v>
@@ -11052,7 +12481,7 @@
         <v>17</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D455" s="3" t="n">
         <v>1</v>
@@ -11068,7 +12497,7 @@
         <v>17</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D456" s="3" t="n">
         <v>1</v>
@@ -11084,7 +12513,7 @@
         <v>17</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D457" s="3" t="n">
         <v>1</v>
@@ -11100,7 +12529,7 @@
         <v>17</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D458" s="3" t="n">
         <v>1</v>
@@ -11116,7 +12545,7 @@
         <v>17</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D459" s="3" t="n">
         <v>1</v>
@@ -11132,7 +12561,7 @@
         <v>17</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D460" s="3" t="n">
         <v>1</v>
@@ -11148,7 +12577,7 @@
         <v>17</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D461" s="3" t="n">
         <v>1</v>
@@ -11164,7 +12593,7 @@
         <v>17</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D462" s="3" t="n">
         <v>1</v>
@@ -11180,7 +12609,7 @@
         <v>17</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D463" s="3" t="n">
         <v>1</v>
@@ -11196,7 +12625,7 @@
         <v>17</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D464" s="3" t="n">
         <v>1</v>
@@ -11212,7 +12641,7 @@
         <v>17</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D465" s="3" t="n">
         <v>1</v>
@@ -11228,7 +12657,7 @@
         <v>17</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D466" s="3" t="n">
         <v>1</v>
@@ -11244,7 +12673,7 @@
         <v>17</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D467" s="3" t="n">
         <v>1</v>
@@ -11260,7 +12689,7 @@
         <v>17</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D468" s="3" t="n">
         <v>1</v>
@@ -11276,7 +12705,7 @@
         <v>17</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D469" s="3" t="n">
         <v>1</v>
@@ -11292,7 +12721,7 @@
         <v>17</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D470" s="3" t="n">
         <v>1</v>
@@ -11308,7 +12737,7 @@
         <v>17</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D471" s="3" t="n">
         <v>1</v>
@@ -11324,7 +12753,7 @@
         <v>17</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D472" s="3" t="n">
         <v>1</v>
@@ -11340,7 +12769,7 @@
         <v>17</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D473" s="3" t="n">
         <v>1</v>
@@ -11356,7 +12785,7 @@
         <v>17</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D474" s="3" t="n">
         <v>1</v>
@@ -11372,7 +12801,7 @@
         <v>17</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D475" s="3" t="n">
         <v>1</v>
@@ -11388,7 +12817,7 @@
         <v>17</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D476" s="3" t="n">
         <v>1</v>
@@ -11404,7 +12833,7 @@
         <v>17</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D477" s="3" t="n">
         <v>1</v>
@@ -11420,7 +12849,7 @@
         <v>17</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D478" s="3" t="n">
         <v>1</v>
@@ -11436,7 +12865,7 @@
         <v>17</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D479" s="3" t="n">
         <v>1</v>
@@ -11452,7 +12881,7 @@
         <v>17</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D480" s="3" t="n">
         <v>1</v>
@@ -11468,7 +12897,7 @@
         <v>17</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D481" s="3" t="n">
         <v>1</v>
@@ -11484,7 +12913,7 @@
         <v>17</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D482" s="3" t="n">
         <v>1</v>
@@ -11500,7 +12929,7 @@
         <v>17</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D483" s="3" t="n">
         <v>1</v>
@@ -11516,7 +12945,7 @@
         <v>17</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D484" s="3" t="n">
         <v>1</v>
@@ -11532,7 +12961,7 @@
         <v>17</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D485" s="3" t="n">
         <v>1</v>
@@ -11548,7 +12977,7 @@
         <v>17</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D486" s="3" t="n">
         <v>1</v>
@@ -11564,7 +12993,7 @@
         <v>17</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D487" s="3" t="n">
         <v>1</v>
@@ -11580,7 +13009,7 @@
         <v>17</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D488" s="3" t="n">
         <v>1</v>
@@ -11596,7 +13025,7 @@
         <v>17</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D489" s="3" t="n">
         <v>1</v>
@@ -11612,7 +13041,7 @@
         <v>17</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D490" s="3" t="n">
         <v>1</v>
@@ -11628,7 +13057,7 @@
         <v>17</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D491" s="3" t="n">
         <v>1</v>
@@ -11644,7 +13073,7 @@
         <v>17</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D492" s="3" t="n">
         <v>2</v>
@@ -11660,7 +13089,7 @@
         <v>17</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D493" s="3" t="n">
         <v>2</v>
@@ -11676,7 +13105,7 @@
         <v>17</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D494" s="3" t="n">
         <v>2</v>
@@ -11692,7 +13121,7 @@
         <v>17</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D495" s="3" t="n">
         <v>2</v>
@@ -11708,7 +13137,7 @@
         <v>17</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D496" s="3" t="n">
         <v>2</v>
@@ -11724,7 +13153,7 @@
         <v>17</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D497" s="3" t="n">
         <v>2</v>
@@ -11740,7 +13169,7 @@
         <v>17</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D498" s="3" t="n">
         <v>2</v>
@@ -11756,7 +13185,7 @@
         <v>17</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D499" s="3" t="n">
         <v>2</v>
@@ -11772,7 +13201,7 @@
         <v>17</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D500" s="3" t="n">
         <v>2</v>
@@ -11788,7 +13217,7 @@
         <v>17</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D501" s="3" t="n">
         <v>2</v>
@@ -11804,7 +13233,7 @@
         <v>17</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D502" s="3" t="n">
         <v>2</v>
@@ -11820,7 +13249,7 @@
         <v>17</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D503" s="3" t="n">
         <v>2</v>
@@ -11836,7 +13265,7 @@
         <v>17</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D504" s="3" t="n">
         <v>2</v>
@@ -11852,7 +13281,7 @@
         <v>17</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D505" s="3" t="n">
         <v>2</v>
@@ -11868,7 +13297,7 @@
         <v>17</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D506" s="3" t="n">
         <v>2</v>
@@ -11884,7 +13313,7 @@
         <v>17</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D507" s="3" t="n">
         <v>2</v>
@@ -11900,7 +13329,7 @@
         <v>17</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D508" s="3" t="n">
         <v>2</v>
@@ -11916,7 +13345,7 @@
         <v>17</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D509" s="3" t="n">
         <v>2</v>
@@ -11932,7 +13361,7 @@
         <v>17</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D510" s="3" t="n">
         <v>2</v>
@@ -11948,7 +13377,7 @@
         <v>17</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D511" s="3" t="n">
         <v>2</v>
@@ -11964,7 +13393,7 @@
         <v>17</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D512" s="3" t="n">
         <v>2</v>
@@ -11980,7 +13409,7 @@
         <v>17</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D513" s="3" t="n">
         <v>2</v>
@@ -11996,7 +13425,7 @@
         <v>17</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D514" s="3" t="n">
         <v>2</v>
@@ -12012,7 +13441,7 @@
         <v>17</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D515" s="3" t="n">
         <v>2</v>
@@ -12028,7 +13457,7 @@
         <v>17</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D516" s="3" t="n">
         <v>2</v>
@@ -12044,7 +13473,7 @@
         <v>17</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D517" s="3" t="n">
         <v>2</v>
@@ -12060,7 +13489,7 @@
         <v>17</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D518" s="3" t="n">
         <v>2</v>
@@ -12076,7 +13505,7 @@
         <v>17</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D519" s="3" t="n">
         <v>2</v>
@@ -12092,7 +13521,7 @@
         <v>17</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D520" s="3" t="n">
         <v>2</v>
@@ -12108,7 +13537,7 @@
         <v>17</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D521" s="3" t="n">
         <v>2</v>
@@ -12124,7 +13553,7 @@
         <v>17</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D522" s="3" t="n">
         <v>2</v>
@@ -12140,7 +13569,7 @@
         <v>17</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D523" s="3" t="n">
         <v>2</v>
@@ -12156,7 +13585,7 @@
         <v>17</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D524" s="3" t="n">
         <v>2</v>
@@ -12172,7 +13601,7 @@
         <v>17</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D525" s="3" t="n">
         <v>2</v>
@@ -12188,7 +13617,7 @@
         <v>17</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D526" s="3" t="n">
         <v>2</v>
@@ -12204,7 +13633,7 @@
         <v>17</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D527" s="3" t="n">
         <v>2</v>
@@ -12220,7 +13649,7 @@
         <v>17</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D528" s="3" t="n">
         <v>2</v>
@@ -12236,7 +13665,7 @@
         <v>17</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D529" s="3" t="n">
         <v>2</v>
@@ -12252,7 +13681,7 @@
         <v>17</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D530" s="3" t="n">
         <v>2</v>
@@ -12268,7 +13697,7 @@
         <v>17</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D531" s="3" t="n">
         <v>2</v>
@@ -12284,7 +13713,7 @@
         <v>17</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D532" s="3" t="n">
         <v>2</v>
@@ -12300,7 +13729,7 @@
         <v>17</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D533" s="3" t="n">
         <v>2</v>
@@ -12316,7 +13745,7 @@
         <v>17</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D534" s="3" t="n">
         <v>2</v>
@@ -12332,7 +13761,7 @@
         <v>17</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D535" s="3" t="n">
         <v>2</v>
@@ -12348,7 +13777,7 @@
         <v>17</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D536" s="3" t="n">
         <v>2</v>
@@ -12364,7 +13793,7 @@
         <v>17</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D537" s="3" t="n">
         <v>2</v>
@@ -12380,7 +13809,7 @@
         <v>17</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D538" s="3" t="n">
         <v>2</v>
@@ -12396,7 +13825,7 @@
         <v>17</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D539" s="3" t="n">
         <v>2</v>
@@ -12412,7 +13841,7 @@
         <v>17</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D540" s="3" t="n">
         <v>2</v>
@@ -12428,7 +13857,7 @@
         <v>17</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D541" s="3" t="n">
         <v>2</v>
@@ -12444,7 +13873,7 @@
         <v>17</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D542" s="3" t="n">
         <v>2</v>
@@ -12460,7 +13889,7 @@
         <v>17</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D543" s="3" t="n">
         <v>2</v>
@@ -12476,7 +13905,7 @@
         <v>17</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D544" s="3" t="n">
         <v>2</v>
@@ -12492,7 +13921,7 @@
         <v>17</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D545" s="3" t="n">
         <v>2</v>
@@ -12508,7 +13937,7 @@
         <v>17</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D546" s="3" t="n">
         <v>2</v>
@@ -12524,7 +13953,7 @@
         <v>17</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D547" s="3" t="n">
         <v>2</v>
@@ -12540,7 +13969,7 @@
         <v>17</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D548" s="3" t="n">
         <v>2</v>
@@ -12556,7 +13985,7 @@
         <v>17</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D549" s="3" t="n">
         <v>2</v>
@@ -12572,7 +14001,7 @@
         <v>17</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D550" s="3" t="n">
         <v>2</v>
@@ -12588,7 +14017,7 @@
         <v>17</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D551" s="3" t="n">
         <v>2</v>
@@ -12604,7 +14033,7 @@
         <v>17</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D552" s="3" t="n">
         <v>2</v>
@@ -12620,7 +14049,7 @@
         <v>17</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D553" s="3" t="n">
         <v>2</v>
@@ -12636,7 +14065,7 @@
         <v>17</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D554" s="3" t="n">
         <v>2</v>
@@ -12652,7 +14081,7 @@
         <v>17</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D555" s="3" t="n">
         <v>2</v>
@@ -12668,7 +14097,7 @@
         <v>17</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D556" s="3" t="n">
         <v>2</v>
@@ -12684,7 +14113,7 @@
         <v>17</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D557" s="3" t="n">
         <v>2</v>
@@ -12700,7 +14129,7 @@
         <v>17</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D558" s="3" t="n">
         <v>2</v>
@@ -12716,7 +14145,7 @@
         <v>17</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D559" s="3" t="n">
         <v>2</v>
@@ -12732,7 +14161,7 @@
         <v>17</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D560" s="3" t="n">
         <v>2</v>
@@ -12748,7 +14177,7 @@
         <v>17</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D561" s="3" t="n">
         <v>2</v>
@@ -12764,7 +14193,7 @@
         <v>17</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D562" s="3" t="n">
         <v>3</v>
@@ -12780,7 +14209,7 @@
         <v>17</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D563" s="3" t="n">
         <v>3</v>
@@ -12796,7 +14225,7 @@
         <v>17</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D564" s="3" t="n">
         <v>3</v>
@@ -12812,7 +14241,7 @@
         <v>17</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D565" s="3" t="n">
         <v>3</v>
@@ -12828,7 +14257,7 @@
         <v>17</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D566" s="3" t="n">
         <v>3</v>
@@ -12844,7 +14273,7 @@
         <v>17</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D567" s="3" t="n">
         <v>3</v>
@@ -12860,7 +14289,7 @@
         <v>17</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D568" s="3" t="n">
         <v>3</v>
@@ -12876,7 +14305,7 @@
         <v>17</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D569" s="3" t="n">
         <v>3</v>
@@ -12892,7 +14321,7 @@
         <v>17</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D570" s="3" t="n">
         <v>3</v>
@@ -12908,7 +14337,7 @@
         <v>17</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D571" s="3" t="n">
         <v>3</v>
@@ -12924,7 +14353,7 @@
         <v>17</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D572" s="3" t="n">
         <v>3</v>
@@ -12940,7 +14369,7 @@
         <v>17</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D573" s="3" t="n">
         <v>3</v>
@@ -12956,7 +14385,7 @@
         <v>17</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D574" s="3" t="n">
         <v>3</v>
@@ -12972,7 +14401,7 @@
         <v>17</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D575" s="3" t="n">
         <v>3</v>
@@ -12988,7 +14417,7 @@
         <v>17</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D576" s="3" t="n">
         <v>3</v>
@@ -13004,7 +14433,7 @@
         <v>17</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D577" s="3" t="n">
         <v>3</v>
@@ -13020,7 +14449,7 @@
         <v>17</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D578" s="3" t="n">
         <v>3</v>
@@ -13036,7 +14465,7 @@
         <v>17</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D579" s="3" t="n">
         <v>3</v>
@@ -13052,7 +14481,7 @@
         <v>17</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D580" s="3" t="n">
         <v>3</v>
@@ -13068,7 +14497,7 @@
         <v>17</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D581" s="3" t="n">
         <v>3</v>
@@ -13084,7 +14513,7 @@
         <v>17</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D582" s="3" t="n">
         <v>3</v>
@@ -13100,7 +14529,7 @@
         <v>17</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D583" s="3" t="n">
         <v>3</v>
@@ -13116,7 +14545,7 @@
         <v>17</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D584" s="3" t="n">
         <v>3</v>
@@ -13132,7 +14561,7 @@
         <v>17</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D585" s="3" t="n">
         <v>3</v>
@@ -13148,7 +14577,7 @@
         <v>17</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D586" s="3" t="n">
         <v>3</v>
@@ -13164,7 +14593,7 @@
         <v>17</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D587" s="3" t="n">
         <v>3</v>
@@ -13180,7 +14609,7 @@
         <v>17</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D588" s="3" t="n">
         <v>3</v>
@@ -13196,7 +14625,7 @@
         <v>17</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D589" s="3" t="n">
         <v>3</v>
@@ -13212,7 +14641,7 @@
         <v>17</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D590" s="3" t="n">
         <v>3</v>
@@ -13228,7 +14657,7 @@
         <v>17</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D591" s="3" t="n">
         <v>3</v>
@@ -13244,7 +14673,7 @@
         <v>17</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D592" s="3" t="n">
         <v>3</v>
@@ -13260,7 +14689,7 @@
         <v>17</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D593" s="3" t="n">
         <v>3</v>
@@ -13276,7 +14705,7 @@
         <v>17</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D594" s="3" t="n">
         <v>3</v>
@@ -13292,7 +14721,7 @@
         <v>17</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D595" s="3" t="n">
         <v>3</v>
@@ -13308,7 +14737,7 @@
         <v>17</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D596" s="3" t="n">
         <v>3</v>
@@ -13324,7 +14753,7 @@
         <v>17</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D597" s="3" t="n">
         <v>3</v>
@@ -13340,7 +14769,7 @@
         <v>17</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D598" s="3" t="n">
         <v>3</v>
@@ -13356,7 +14785,7 @@
         <v>17</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D599" s="3" t="n">
         <v>3</v>
@@ -13372,7 +14801,7 @@
         <v>17</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D600" s="3" t="n">
         <v>3</v>
@@ -13388,7 +14817,7 @@
         <v>17</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D601" s="3" t="n">
         <v>3</v>
@@ -13404,7 +14833,7 @@
         <v>17</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D602" s="3" t="n">
         <v>3</v>
@@ -13420,7 +14849,7 @@
         <v>17</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D603" s="3" t="n">
         <v>3</v>
@@ -13436,7 +14865,7 @@
         <v>17</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D604" s="3" t="n">
         <v>3</v>
@@ -13452,7 +14881,7 @@
         <v>17</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D605" s="3" t="n">
         <v>3</v>
@@ -13468,7 +14897,7 @@
         <v>17</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D606" s="3" t="n">
         <v>3</v>
@@ -13484,7 +14913,7 @@
         <v>17</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D607" s="3" t="n">
         <v>3</v>
@@ -13500,7 +14929,7 @@
         <v>17</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D608" s="3" t="n">
         <v>3</v>
@@ -13516,7 +14945,7 @@
         <v>17</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D609" s="3" t="n">
         <v>3</v>
@@ -13532,7 +14961,7 @@
         <v>17</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D610" s="3" t="n">
         <v>3</v>
@@ -13548,7 +14977,7 @@
         <v>17</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D611" s="3" t="n">
         <v>3</v>
@@ -13564,7 +14993,7 @@
         <v>17</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D612" s="3" t="n">
         <v>3</v>
@@ -13580,7 +15009,7 @@
         <v>17</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D613" s="3" t="n">
         <v>3</v>
@@ -13596,7 +15025,7 @@
         <v>17</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D614" s="3" t="n">
         <v>3</v>
@@ -13612,7 +15041,7 @@
         <v>17</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D615" s="3" t="n">
         <v>3</v>
@@ -13628,7 +15057,7 @@
         <v>17</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D616" s="3" t="n">
         <v>3</v>
@@ -13644,7 +15073,7 @@
         <v>17</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D617" s="3" t="n">
         <v>3</v>
@@ -13660,7 +15089,7 @@
         <v>17</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D618" s="3" t="n">
         <v>3</v>
@@ -13676,7 +15105,7 @@
         <v>17</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D619" s="3" t="n">
         <v>3</v>
@@ -13692,7 +15121,7 @@
         <v>17</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D620" s="3" t="n">
         <v>3</v>
@@ -13708,7 +15137,7 @@
         <v>17</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D621" s="3" t="n">
         <v>3</v>
@@ -13724,7 +15153,7 @@
         <v>17</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D622" s="3" t="n">
         <v>3</v>
@@ -13740,7 +15169,7 @@
         <v>17</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D623" s="3" t="n">
         <v>3</v>
@@ -13756,7 +15185,7 @@
         <v>17</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D624" s="3" t="n">
         <v>3</v>
@@ -13772,7 +15201,7 @@
         <v>17</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D625" s="3" t="n">
         <v>3</v>
@@ -13788,7 +15217,7 @@
         <v>17</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D626" s="3" t="n">
         <v>3</v>
@@ -13804,7 +15233,7 @@
         <v>17</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D627" s="3" t="n">
         <v>3</v>
@@ -13820,7 +15249,7 @@
         <v>17</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D628" s="3" t="n">
         <v>3</v>
@@ -13836,7 +15265,7 @@
         <v>17</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D629" s="3" t="n">
         <v>3</v>
@@ -13852,7 +15281,7 @@
         <v>17</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D630" s="3" t="n">
         <v>3</v>
@@ -13868,7 +15297,7 @@
         <v>17</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D631" s="3" t="n">
         <v>3</v>
@@ -13884,7 +15313,7 @@
         <v>17</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D632" s="3" t="n">
         <v>1</v>
@@ -13900,7 +15329,7 @@
         <v>17</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D633" s="3" t="n">
         <v>1</v>
@@ -13916,7 +15345,7 @@
         <v>17</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D634" s="3" t="n">
         <v>1</v>
@@ -13932,7 +15361,7 @@
         <v>17</v>
       </c>
       <c r="C635" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D635" s="3" t="n">
         <v>1</v>
@@ -13948,7 +15377,7 @@
         <v>17</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D636" s="3" t="n">
         <v>1</v>
@@ -13964,7 +15393,7 @@
         <v>17</v>
       </c>
       <c r="C637" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D637" s="3" t="n">
         <v>1</v>
@@ -13980,7 +15409,7 @@
         <v>17</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D638" s="3" t="n">
         <v>1</v>
@@ -13996,7 +15425,7 @@
         <v>17</v>
       </c>
       <c r="C639" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D639" s="3" t="n">
         <v>1</v>
@@ -14012,7 +15441,7 @@
         <v>17</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D640" s="3" t="n">
         <v>1</v>
@@ -14028,7 +15457,7 @@
         <v>17</v>
       </c>
       <c r="C641" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D641" s="3" t="n">
         <v>1</v>
@@ -14044,7 +15473,7 @@
         <v>17</v>
       </c>
       <c r="C642" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D642" s="3" t="n">
         <v>1</v>
@@ -14060,7 +15489,7 @@
         <v>17</v>
       </c>
       <c r="C643" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D643" s="3" t="n">
         <v>1</v>
@@ -14076,7 +15505,7 @@
         <v>17</v>
       </c>
       <c r="C644" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D644" s="3" t="n">
         <v>1</v>
@@ -14092,7 +15521,7 @@
         <v>17</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D645" s="3" t="n">
         <v>1</v>
@@ -14108,7 +15537,7 @@
         <v>17</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D646" s="3" t="n">
         <v>1</v>
@@ -14124,7 +15553,7 @@
         <v>17</v>
       </c>
       <c r="C647" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D647" s="3" t="n">
         <v>1</v>
@@ -14140,7 +15569,7 @@
         <v>17</v>
       </c>
       <c r="C648" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D648" s="3" t="n">
         <v>1</v>
@@ -14156,7 +15585,7 @@
         <v>17</v>
       </c>
       <c r="C649" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D649" s="3" t="n">
         <v>1</v>
@@ -14172,7 +15601,7 @@
         <v>17</v>
       </c>
       <c r="C650" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D650" s="3" t="n">
         <v>1</v>
@@ -14188,7 +15617,7 @@
         <v>17</v>
       </c>
       <c r="C651" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D651" s="3" t="n">
         <v>1</v>
@@ -14204,7 +15633,7 @@
         <v>17</v>
       </c>
       <c r="C652" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D652" s="3" t="n">
         <v>1</v>
@@ -14220,7 +15649,7 @@
         <v>17</v>
       </c>
       <c r="C653" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D653" s="3" t="n">
         <v>1</v>
@@ -14236,7 +15665,7 @@
         <v>17</v>
       </c>
       <c r="C654" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D654" s="3" t="n">
         <v>1</v>
@@ -14252,7 +15681,7 @@
         <v>17</v>
       </c>
       <c r="C655" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D655" s="3" t="n">
         <v>1</v>
@@ -14268,7 +15697,7 @@
         <v>17</v>
       </c>
       <c r="C656" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D656" s="3" t="n">
         <v>1</v>
@@ -14284,7 +15713,7 @@
         <v>17</v>
       </c>
       <c r="C657" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D657" s="3" t="n">
         <v>1</v>
@@ -14300,7 +15729,7 @@
         <v>17</v>
       </c>
       <c r="C658" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D658" s="3" t="n">
         <v>1</v>
@@ -14316,7 +15745,7 @@
         <v>17</v>
       </c>
       <c r="C659" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D659" s="3" t="n">
         <v>1</v>
@@ -14332,7 +15761,7 @@
         <v>17</v>
       </c>
       <c r="C660" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D660" s="3" t="n">
         <v>1</v>
@@ -14348,7 +15777,7 @@
         <v>17</v>
       </c>
       <c r="C661" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D661" s="3" t="n">
         <v>1</v>
@@ -14364,7 +15793,7 @@
         <v>17</v>
       </c>
       <c r="C662" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D662" s="3" t="n">
         <v>1</v>
@@ -14380,7 +15809,7 @@
         <v>17</v>
       </c>
       <c r="C663" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D663" s="3" t="n">
         <v>1</v>
@@ -14396,7 +15825,7 @@
         <v>17</v>
       </c>
       <c r="C664" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D664" s="3" t="n">
         <v>1</v>
@@ -14412,7 +15841,7 @@
         <v>17</v>
       </c>
       <c r="C665" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D665" s="3" t="n">
         <v>1</v>
@@ -14428,7 +15857,7 @@
         <v>17</v>
       </c>
       <c r="C666" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D666" s="3" t="n">
         <v>1</v>
@@ -14444,7 +15873,7 @@
         <v>17</v>
       </c>
       <c r="C667" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D667" s="3" t="n">
         <v>1</v>
@@ -14460,7 +15889,7 @@
         <v>17</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D668" s="3" t="n">
         <v>1</v>
@@ -14476,7 +15905,7 @@
         <v>17</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D669" s="3" t="n">
         <v>1</v>
@@ -14492,7 +15921,7 @@
         <v>17</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D670" s="3" t="n">
         <v>1</v>
@@ -14508,7 +15937,7 @@
         <v>17</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D671" s="3" t="n">
         <v>1</v>
@@ -14524,7 +15953,7 @@
         <v>17</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D672" s="3" t="n">
         <v>1</v>
@@ -14540,7 +15969,7 @@
         <v>17</v>
       </c>
       <c r="C673" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D673" s="3" t="n">
         <v>1</v>
@@ -14556,7 +15985,7 @@
         <v>17</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D674" s="3" t="n">
         <v>1</v>
@@ -14572,7 +16001,7 @@
         <v>17</v>
       </c>
       <c r="C675" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D675" s="3" t="n">
         <v>1</v>
@@ -14588,7 +16017,7 @@
         <v>17</v>
       </c>
       <c r="C676" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D676" s="3" t="n">
         <v>1</v>
@@ -14604,7 +16033,7 @@
         <v>17</v>
       </c>
       <c r="C677" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D677" s="3" t="n">
         <v>1</v>
@@ -14620,7 +16049,7 @@
         <v>17</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D678" s="3" t="n">
         <v>1</v>
@@ -14636,7 +16065,7 @@
         <v>17</v>
       </c>
       <c r="C679" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D679" s="3" t="n">
         <v>1</v>
@@ -14652,7 +16081,7 @@
         <v>17</v>
       </c>
       <c r="C680" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D680" s="3" t="n">
         <v>1</v>
@@ -14668,7 +16097,7 @@
         <v>17</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D681" s="3" t="n">
         <v>1</v>
@@ -14684,7 +16113,7 @@
         <v>17</v>
       </c>
       <c r="C682" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D682" s="3" t="n">
         <v>1</v>
@@ -14700,7 +16129,7 @@
         <v>17</v>
       </c>
       <c r="C683" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D683" s="3" t="n">
         <v>1</v>
@@ -14716,7 +16145,7 @@
         <v>17</v>
       </c>
       <c r="C684" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D684" s="3" t="n">
         <v>1</v>
@@ -14732,7 +16161,7 @@
         <v>17</v>
       </c>
       <c r="C685" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D685" s="3" t="n">
         <v>1</v>
@@ -14748,7 +16177,7 @@
         <v>17</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D686" s="3" t="n">
         <v>1</v>
@@ -14764,7 +16193,7 @@
         <v>17</v>
       </c>
       <c r="C687" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D687" s="3" t="n">
         <v>1</v>
@@ -14780,7 +16209,7 @@
         <v>17</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D688" s="3" t="n">
         <v>1</v>
@@ -14796,7 +16225,7 @@
         <v>17</v>
       </c>
       <c r="C689" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D689" s="3" t="n">
         <v>1</v>
@@ -14812,7 +16241,7 @@
         <v>17</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D690" s="3" t="n">
         <v>1</v>
@@ -14828,7 +16257,7 @@
         <v>17</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D691" s="3" t="n">
         <v>1</v>
@@ -14844,7 +16273,7 @@
         <v>17</v>
       </c>
       <c r="C692" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D692" s="3" t="n">
         <v>1</v>
@@ -14860,7 +16289,7 @@
         <v>17</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D693" s="3" t="n">
         <v>1</v>
@@ -14876,7 +16305,7 @@
         <v>17</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D694" s="3" t="n">
         <v>1</v>
@@ -14892,7 +16321,7 @@
         <v>17</v>
       </c>
       <c r="C695" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D695" s="3" t="n">
         <v>1</v>
@@ -14908,7 +16337,7 @@
         <v>17</v>
       </c>
       <c r="C696" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D696" s="3" t="n">
         <v>1</v>
@@ -14924,7 +16353,7 @@
         <v>17</v>
       </c>
       <c r="C697" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D697" s="3" t="n">
         <v>1</v>
@@ -14940,7 +16369,7 @@
         <v>17</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D698" s="3" t="n">
         <v>1</v>
@@ -14956,7 +16385,7 @@
         <v>17</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D699" s="3" t="n">
         <v>1</v>
@@ -14972,7 +16401,7 @@
         <v>17</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D700" s="3" t="n">
         <v>1</v>
@@ -14988,7 +16417,7 @@
         <v>17</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D701" s="3" t="n">
         <v>1</v>
@@ -15004,7 +16433,7 @@
         <v>17</v>
       </c>
       <c r="C702" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D702" s="3" t="n">
         <v>2</v>
@@ -15020,7 +16449,7 @@
         <v>17</v>
       </c>
       <c r="C703" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D703" s="3" t="n">
         <v>2</v>
@@ -15036,7 +16465,7 @@
         <v>17</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D704" s="3" t="n">
         <v>2</v>
@@ -15052,7 +16481,7 @@
         <v>17</v>
       </c>
       <c r="C705" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D705" s="3" t="n">
         <v>2</v>
@@ -15068,7 +16497,7 @@
         <v>17</v>
       </c>
       <c r="C706" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D706" s="3" t="n">
         <v>2</v>
@@ -15084,7 +16513,7 @@
         <v>17</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D707" s="3" t="n">
         <v>2</v>
@@ -15100,7 +16529,7 @@
         <v>17</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D708" s="3" t="n">
         <v>2</v>
@@ -15116,7 +16545,7 @@
         <v>17</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D709" s="3" t="n">
         <v>2</v>
@@ -15132,7 +16561,7 @@
         <v>17</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D710" s="3" t="n">
         <v>2</v>
@@ -15148,7 +16577,7 @@
         <v>17</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D711" s="3" t="n">
         <v>2</v>
@@ -15164,7 +16593,7 @@
         <v>17</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D712" s="3" t="n">
         <v>2</v>
@@ -15180,7 +16609,7 @@
         <v>17</v>
       </c>
       <c r="C713" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D713" s="3" t="n">
         <v>2</v>
@@ -15196,7 +16625,7 @@
         <v>17</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D714" s="3" t="n">
         <v>2</v>
@@ -15212,7 +16641,7 @@
         <v>17</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D715" s="3" t="n">
         <v>2</v>
@@ -15228,7 +16657,7 @@
         <v>17</v>
       </c>
       <c r="C716" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D716" s="3" t="n">
         <v>2</v>
@@ -15244,7 +16673,7 @@
         <v>17</v>
       </c>
       <c r="C717" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D717" s="3" t="n">
         <v>2</v>
@@ -15260,7 +16689,7 @@
         <v>17</v>
       </c>
       <c r="C718" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D718" s="3" t="n">
         <v>2</v>
@@ -15276,7 +16705,7 @@
         <v>17</v>
       </c>
       <c r="C719" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D719" s="3" t="n">
         <v>2</v>
@@ -15292,7 +16721,7 @@
         <v>17</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D720" s="3" t="n">
         <v>2</v>
@@ -15308,7 +16737,7 @@
         <v>17</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D721" s="3" t="n">
         <v>2</v>
@@ -15324,7 +16753,7 @@
         <v>17</v>
       </c>
       <c r="C722" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D722" s="3" t="n">
         <v>2</v>
@@ -15340,7 +16769,7 @@
         <v>17</v>
       </c>
       <c r="C723" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D723" s="3" t="n">
         <v>2</v>
@@ -15356,7 +16785,7 @@
         <v>17</v>
       </c>
       <c r="C724" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D724" s="3" t="n">
         <v>2</v>
@@ -15372,7 +16801,7 @@
         <v>17</v>
       </c>
       <c r="C725" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D725" s="3" t="n">
         <v>2</v>
@@ -15388,7 +16817,7 @@
         <v>17</v>
       </c>
       <c r="C726" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D726" s="3" t="n">
         <v>2</v>
@@ -15404,7 +16833,7 @@
         <v>17</v>
       </c>
       <c r="C727" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D727" s="3" t="n">
         <v>2</v>
@@ -15420,7 +16849,7 @@
         <v>17</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D728" s="3" t="n">
         <v>2</v>
@@ -15436,7 +16865,7 @@
         <v>17</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D729" s="3" t="n">
         <v>2</v>
@@ -15452,7 +16881,7 @@
         <v>17</v>
       </c>
       <c r="C730" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D730" s="3" t="n">
         <v>2</v>
@@ -15468,7 +16897,7 @@
         <v>17</v>
       </c>
       <c r="C731" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D731" s="3" t="n">
         <v>2</v>
@@ -15484,7 +16913,7 @@
         <v>17</v>
       </c>
       <c r="C732" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D732" s="3" t="n">
         <v>2</v>
@@ -15500,7 +16929,7 @@
         <v>17</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D733" s="3" t="n">
         <v>2</v>
@@ -15516,7 +16945,7 @@
         <v>17</v>
       </c>
       <c r="C734" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D734" s="3" t="n">
         <v>2</v>
@@ -15532,7 +16961,7 @@
         <v>17</v>
       </c>
       <c r="C735" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D735" s="3" t="n">
         <v>2</v>
@@ -15548,7 +16977,7 @@
         <v>17</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D736" s="3" t="n">
         <v>2</v>
@@ -15564,7 +16993,7 @@
         <v>17</v>
       </c>
       <c r="C737" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D737" s="3" t="n">
         <v>2</v>
@@ -15580,7 +17009,7 @@
         <v>17</v>
       </c>
       <c r="C738" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D738" s="3" t="n">
         <v>2</v>
@@ -15596,7 +17025,7 @@
         <v>17</v>
       </c>
       <c r="C739" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D739" s="3" t="n">
         <v>2</v>
@@ -15612,7 +17041,7 @@
         <v>17</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D740" s="3" t="n">
         <v>2</v>
@@ -15628,7 +17057,7 @@
         <v>17</v>
       </c>
       <c r="C741" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D741" s="3" t="n">
         <v>2</v>
@@ -15644,7 +17073,7 @@
         <v>17</v>
       </c>
       <c r="C742" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D742" s="3" t="n">
         <v>2</v>
@@ -15660,7 +17089,7 @@
         <v>17</v>
       </c>
       <c r="C743" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D743" s="3" t="n">
         <v>2</v>
@@ -15676,7 +17105,7 @@
         <v>17</v>
       </c>
       <c r="C744" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D744" s="3" t="n">
         <v>2</v>
@@ -15692,7 +17121,7 @@
         <v>17</v>
       </c>
       <c r="C745" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D745" s="3" t="n">
         <v>2</v>
@@ -15708,7 +17137,7 @@
         <v>17</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D746" s="3" t="n">
         <v>2</v>
@@ -15724,7 +17153,7 @@
         <v>17</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D747" s="3" t="n">
         <v>2</v>
@@ -15740,7 +17169,7 @@
         <v>17</v>
       </c>
       <c r="C748" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D748" s="3" t="n">
         <v>2</v>
@@ -15756,7 +17185,7 @@
         <v>17</v>
       </c>
       <c r="C749" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D749" s="3" t="n">
         <v>2</v>
@@ -15772,7 +17201,7 @@
         <v>17</v>
       </c>
       <c r="C750" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D750" s="3" t="n">
         <v>2</v>
@@ -15788,7 +17217,7 @@
         <v>17</v>
       </c>
       <c r="C751" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D751" s="3" t="n">
         <v>2</v>
@@ -15804,7 +17233,7 @@
         <v>17</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D752" s="3" t="n">
         <v>2</v>
@@ -15820,7 +17249,7 @@
         <v>17</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D753" s="3" t="n">
         <v>2</v>
@@ -15836,7 +17265,7 @@
         <v>17</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D754" s="3" t="n">
         <v>2</v>
@@ -15852,7 +17281,7 @@
         <v>17</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D755" s="3" t="n">
         <v>2</v>
@@ -15868,7 +17297,7 @@
         <v>17</v>
       </c>
       <c r="C756" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D756" s="3" t="n">
         <v>2</v>
@@ -15884,7 +17313,7 @@
         <v>17</v>
       </c>
       <c r="C757" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D757" s="3" t="n">
         <v>2</v>
@@ -15900,7 +17329,7 @@
         <v>17</v>
       </c>
       <c r="C758" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D758" s="3" t="n">
         <v>2</v>
@@ -15916,7 +17345,7 @@
         <v>17</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D759" s="3" t="n">
         <v>2</v>
@@ -15932,7 +17361,7 @@
         <v>17</v>
       </c>
       <c r="C760" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D760" s="3" t="n">
         <v>2</v>
@@ -15948,7 +17377,7 @@
         <v>17</v>
       </c>
       <c r="C761" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D761" s="3" t="n">
         <v>2</v>
@@ -15964,7 +17393,7 @@
         <v>17</v>
       </c>
       <c r="C762" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D762" s="3" t="n">
         <v>2</v>
@@ -15980,7 +17409,7 @@
         <v>17</v>
       </c>
       <c r="C763" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D763" s="3" t="n">
         <v>2</v>
@@ -15996,7 +17425,7 @@
         <v>17</v>
       </c>
       <c r="C764" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D764" s="3" t="n">
         <v>2</v>
@@ -16012,7 +17441,7 @@
         <v>17</v>
       </c>
       <c r="C765" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D765" s="3" t="n">
         <v>2</v>
@@ -16028,7 +17457,7 @@
         <v>17</v>
       </c>
       <c r="C766" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D766" s="3" t="n">
         <v>2</v>
@@ -16044,7 +17473,7 @@
         <v>17</v>
       </c>
       <c r="C767" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D767" s="3" t="n">
         <v>2</v>
@@ -16060,7 +17489,7 @@
         <v>17</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D768" s="3" t="n">
         <v>2</v>
@@ -16076,7 +17505,7 @@
         <v>17</v>
       </c>
       <c r="C769" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D769" s="3" t="n">
         <v>2</v>
@@ -16092,7 +17521,7 @@
         <v>17</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D770" s="3" t="n">
         <v>2</v>
@@ -16108,7 +17537,7 @@
         <v>17</v>
       </c>
       <c r="C771" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D771" s="3" t="n">
         <v>2</v>
@@ -16124,7 +17553,7 @@
         <v>17</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D772" s="3" t="n">
         <v>3</v>
@@ -16140,7 +17569,7 @@
         <v>17</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D773" s="3" t="n">
         <v>3</v>
@@ -16156,7 +17585,7 @@
         <v>17</v>
       </c>
       <c r="C774" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D774" s="3" t="n">
         <v>3</v>
@@ -16172,7 +17601,7 @@
         <v>17</v>
       </c>
       <c r="C775" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D775" s="3" t="n">
         <v>3</v>
@@ -16188,7 +17617,7 @@
         <v>17</v>
       </c>
       <c r="C776" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D776" s="3" t="n">
         <v>3</v>
@@ -16204,7 +17633,7 @@
         <v>17</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D777" s="3" t="n">
         <v>3</v>
@@ -16220,7 +17649,7 @@
         <v>17</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D778" s="3" t="n">
         <v>3</v>
@@ -16236,7 +17665,7 @@
         <v>17</v>
       </c>
       <c r="C779" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D779" s="3" t="n">
         <v>3</v>
@@ -16252,7 +17681,7 @@
         <v>17</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D780" s="3" t="n">
         <v>3</v>
@@ -16268,7 +17697,7 @@
         <v>17</v>
       </c>
       <c r="C781" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D781" s="3" t="n">
         <v>3</v>
@@ -16284,7 +17713,7 @@
         <v>17</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D782" s="3" t="n">
         <v>3</v>
@@ -16300,7 +17729,7 @@
         <v>17</v>
       </c>
       <c r="C783" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D783" s="3" t="n">
         <v>3</v>
@@ -16316,7 +17745,7 @@
         <v>17</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D784" s="3" t="n">
         <v>3</v>
@@ -16332,7 +17761,7 @@
         <v>17</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D785" s="3" t="n">
         <v>3</v>
@@ -16348,7 +17777,7 @@
         <v>17</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D786" s="3" t="n">
         <v>3</v>
@@ -16364,7 +17793,7 @@
         <v>17</v>
       </c>
       <c r="C787" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D787" s="3" t="n">
         <v>3</v>
@@ -16380,7 +17809,7 @@
         <v>17</v>
       </c>
       <c r="C788" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D788" s="3" t="n">
         <v>3</v>
@@ -16396,7 +17825,7 @@
         <v>17</v>
       </c>
       <c r="C789" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D789" s="3" t="n">
         <v>3</v>
@@ -16412,7 +17841,7 @@
         <v>17</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D790" s="3" t="n">
         <v>3</v>
@@ -16428,7 +17857,7 @@
         <v>17</v>
       </c>
       <c r="C791" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D791" s="3" t="n">
         <v>3</v>
@@ -16444,7 +17873,7 @@
         <v>17</v>
       </c>
       <c r="C792" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D792" s="3" t="n">
         <v>3</v>
@@ -16460,7 +17889,7 @@
         <v>17</v>
       </c>
       <c r="C793" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D793" s="3" t="n">
         <v>3</v>
@@ -16476,7 +17905,7 @@
         <v>17</v>
       </c>
       <c r="C794" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D794" s="3" t="n">
         <v>3</v>
@@ -16492,7 +17921,7 @@
         <v>17</v>
       </c>
       <c r="C795" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D795" s="3" t="n">
         <v>3</v>
@@ -16508,7 +17937,7 @@
         <v>17</v>
       </c>
       <c r="C796" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D796" s="3" t="n">
         <v>3</v>
@@ -16524,7 +17953,7 @@
         <v>17</v>
       </c>
       <c r="C797" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D797" s="3" t="n">
         <v>3</v>
@@ -16540,7 +17969,7 @@
         <v>17</v>
       </c>
       <c r="C798" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D798" s="3" t="n">
         <v>3</v>
@@ -16556,7 +17985,7 @@
         <v>17</v>
       </c>
       <c r="C799" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D799" s="3" t="n">
         <v>3</v>
@@ -16572,7 +18001,7 @@
         <v>17</v>
       </c>
       <c r="C800" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D800" s="3" t="n">
         <v>3</v>
@@ -16588,7 +18017,7 @@
         <v>17</v>
       </c>
       <c r="C801" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D801" s="3" t="n">
         <v>3</v>
@@ -16604,7 +18033,7 @@
         <v>17</v>
       </c>
       <c r="C802" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D802" s="3" t="n">
         <v>3</v>
@@ -16620,7 +18049,7 @@
         <v>17</v>
       </c>
       <c r="C803" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D803" s="3" t="n">
         <v>3</v>
@@ -16636,7 +18065,7 @@
         <v>17</v>
       </c>
       <c r="C804" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D804" s="3" t="n">
         <v>3</v>
@@ -16652,7 +18081,7 @@
         <v>17</v>
       </c>
       <c r="C805" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D805" s="3" t="n">
         <v>3</v>
@@ -16668,7 +18097,7 @@
         <v>17</v>
       </c>
       <c r="C806" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D806" s="3" t="n">
         <v>3</v>
@@ -16684,7 +18113,7 @@
         <v>17</v>
       </c>
       <c r="C807" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D807" s="3" t="n">
         <v>3</v>
@@ -16700,7 +18129,7 @@
         <v>17</v>
       </c>
       <c r="C808" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D808" s="3" t="n">
         <v>3</v>
@@ -16716,7 +18145,7 @@
         <v>17</v>
       </c>
       <c r="C809" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D809" s="3" t="n">
         <v>3</v>
@@ -16732,7 +18161,7 @@
         <v>17</v>
       </c>
       <c r="C810" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D810" s="3" t="n">
         <v>3</v>
@@ -16748,7 +18177,7 @@
         <v>17</v>
       </c>
       <c r="C811" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D811" s="3" t="n">
         <v>3</v>
@@ -16764,7 +18193,7 @@
         <v>17</v>
       </c>
       <c r="C812" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D812" s="3" t="n">
         <v>3</v>
@@ -16780,7 +18209,7 @@
         <v>17</v>
       </c>
       <c r="C813" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D813" s="3" t="n">
         <v>3</v>
@@ -16796,7 +18225,7 @@
         <v>17</v>
       </c>
       <c r="C814" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D814" s="3" t="n">
         <v>3</v>
@@ -16812,7 +18241,7 @@
         <v>17</v>
       </c>
       <c r="C815" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D815" s="3" t="n">
         <v>3</v>
@@ -16828,7 +18257,7 @@
         <v>17</v>
       </c>
       <c r="C816" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D816" s="3" t="n">
         <v>3</v>
@@ -16844,7 +18273,7 @@
         <v>17</v>
       </c>
       <c r="C817" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D817" s="3" t="n">
         <v>3</v>
@@ -16860,7 +18289,7 @@
         <v>17</v>
       </c>
       <c r="C818" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D818" s="3" t="n">
         <v>3</v>
@@ -16876,7 +18305,7 @@
         <v>17</v>
       </c>
       <c r="C819" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D819" s="3" t="n">
         <v>3</v>
@@ -16892,7 +18321,7 @@
         <v>17</v>
       </c>
       <c r="C820" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D820" s="3" t="n">
         <v>3</v>
@@ -16908,7 +18337,7 @@
         <v>17</v>
       </c>
       <c r="C821" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D821" s="3" t="n">
         <v>3</v>
@@ -16924,7 +18353,7 @@
         <v>17</v>
       </c>
       <c r="C822" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D822" s="3" t="n">
         <v>3</v>
@@ -16940,7 +18369,7 @@
         <v>17</v>
       </c>
       <c r="C823" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D823" s="3" t="n">
         <v>3</v>
@@ -16956,7 +18385,7 @@
         <v>17</v>
       </c>
       <c r="C824" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D824" s="3" t="n">
         <v>3</v>
@@ -16972,7 +18401,7 @@
         <v>17</v>
       </c>
       <c r="C825" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D825" s="3" t="n">
         <v>3</v>
@@ -16988,7 +18417,7 @@
         <v>17</v>
       </c>
       <c r="C826" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D826" s="3" t="n">
         <v>3</v>
@@ -17004,7 +18433,7 @@
         <v>17</v>
       </c>
       <c r="C827" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D827" s="3" t="n">
         <v>3</v>
@@ -17020,7 +18449,7 @@
         <v>17</v>
       </c>
       <c r="C828" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D828" s="3" t="n">
         <v>3</v>
@@ -17036,7 +18465,7 @@
         <v>17</v>
       </c>
       <c r="C829" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D829" s="3" t="n">
         <v>3</v>
@@ -17052,7 +18481,7 @@
         <v>17</v>
       </c>
       <c r="C830" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D830" s="3" t="n">
         <v>3</v>
@@ -17068,7 +18497,7 @@
         <v>17</v>
       </c>
       <c r="C831" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D831" s="3" t="n">
         <v>3</v>
@@ -17084,7 +18513,7 @@
         <v>17</v>
       </c>
       <c r="C832" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D832" s="3" t="n">
         <v>3</v>
@@ -17100,7 +18529,7 @@
         <v>17</v>
       </c>
       <c r="C833" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D833" s="3" t="n">
         <v>3</v>
@@ -17116,7 +18545,7 @@
         <v>17</v>
       </c>
       <c r="C834" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D834" s="3" t="n">
         <v>3</v>
@@ -17132,7 +18561,7 @@
         <v>17</v>
       </c>
       <c r="C835" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D835" s="3" t="n">
         <v>3</v>
@@ -17148,7 +18577,7 @@
         <v>17</v>
       </c>
       <c r="C836" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D836" s="3" t="n">
         <v>3</v>
@@ -17164,7 +18593,7 @@
         <v>17</v>
       </c>
       <c r="C837" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D837" s="3" t="n">
         <v>3</v>
@@ -17180,7 +18609,7 @@
         <v>17</v>
       </c>
       <c r="C838" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D838" s="3" t="n">
         <v>3</v>
@@ -17196,7 +18625,7 @@
         <v>17</v>
       </c>
       <c r="C839" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D839" s="3" t="n">
         <v>3</v>
@@ -17212,7 +18641,7 @@
         <v>17</v>
       </c>
       <c r="C840" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D840" s="3" t="n">
         <v>3</v>
@@ -17228,7 +18657,7 @@
         <v>17</v>
       </c>
       <c r="C841" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D841" s="3" t="n">
         <v>3</v>
